--- a/target/test-classes/data/PostData.xlsx
+++ b/target/test-classes/data/PostData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>TestCase</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>acf9868b3778a2995dfc131a382aaca7</t>
+  </si>
+  <si>
+    <t>6bbfefa18b2d376d69f347fb224ea39c</t>
+  </si>
+  <si>
+    <t>8b1ee2fab4e37e2a39e57e66c9e060f0</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -623,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
